--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="998">
   <si>
     <t>anchor score</t>
   </si>
@@ -208,670 +208,670 @@
     <t>shame</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>dying</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>asked</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>strained</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ladies</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>lady</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>dying</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>asked</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>strained</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>blog</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>ladies</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>developed</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ease</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>fiscal</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>lady</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>better</t>
@@ -3373,10 +3373,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3434,7 +3434,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03420449808902778</v>
+        <v>0.03483710234729431</v>
       </c>
       <c r="C3">
         <v>191</v>
@@ -3455,28 +3455,28 @@
         <v>101</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="K3">
-        <v>0.004424713981507939</v>
+        <v>0.00772231512527278</v>
       </c>
       <c r="L3">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="M3">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3484,7 +3484,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01835472504664226</v>
+        <v>0.01869419142891734</v>
       </c>
       <c r="C4">
         <v>55</v>
@@ -3505,16 +3505,16 @@
         <v>461</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K4">
-        <v>0.003769864332070711</v>
+        <v>0.006963302422949392</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01309620769748349</v>
+        <v>0.01333841902112307</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -3555,28 +3555,28 @@
         <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="K5">
-        <v>0.003421096136268619</v>
+        <v>0.004424713981507939</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3584,7 +3584,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01237475310199684</v>
+        <v>0.01260362129023759</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -3605,28 +3605,28 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="K6">
-        <v>0.003300910534020709</v>
+        <v>0.003769864332070711</v>
       </c>
       <c r="L6">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3634,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01160854739470596</v>
+        <v>0.0118232447861153</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -3655,28 +3655,28 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="K7">
-        <v>0.003259242012876717</v>
+        <v>0.003421096136268619</v>
       </c>
       <c r="L7">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3684,7 +3684,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009585442535492462</v>
+        <v>0.009762723071799083</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -3705,28 +3705,28 @@
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>288</v>
+        <v>116</v>
       </c>
       <c r="K8">
-        <v>0.003123019208713484</v>
+        <v>0.003300910534020709</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3734,7 +3734,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009585442535492462</v>
+        <v>0.009762723071799083</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -3755,28 +3755,28 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="K9">
-        <v>0.003123019208713484</v>
+        <v>0.003259242012876717</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3784,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008923561366091329</v>
+        <v>0.009088600563696245</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -3805,16 +3805,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K10">
-        <v>0.003078081337697121</v>
+        <v>0.003123019208713484</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3834,7 +3834,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008923561366091329</v>
+        <v>0.009088600563696245</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -3855,16 +3855,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K11">
-        <v>0.002691704045649618</v>
+        <v>0.003123019208713484</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3884,7 +3884,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0074248518611981</v>
+        <v>0.007562172774142553</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -3905,16 +3905,16 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K12">
-        <v>0.002639432971843086</v>
+        <v>0.003078081337697121</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3934,7 +3934,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0074248518611981</v>
+        <v>0.007562172774142553</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -3955,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K13">
-        <v>0.002639432971843086</v>
+        <v>0.002691704045649618</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3984,7 +3984,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0074248518611981</v>
+        <v>0.007562172774142553</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -4005,16 +4005,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K14">
-        <v>0.002586105596517344</v>
+        <v>0.002639432971843086</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4034,7 +4034,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0074248518611981</v>
+        <v>0.007562172774142553</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -4055,16 +4055,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K15">
-        <v>0.002586105596517344</v>
+        <v>0.002639432971843086</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4084,7 +4084,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007000217467144981</v>
+        <v>0.007129684865467314</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -4105,28 +4105,28 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K16">
-        <v>0.002531655170007209</v>
+        <v>0.002586105596517344</v>
       </c>
       <c r="L16">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>24</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>23</v>
-      </c>
-      <c r="M16">
-        <v>23</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4134,7 +4134,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007000217467144981</v>
+        <v>0.007129684865467314</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -4155,16 +4155,16 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K17">
-        <v>0.002531655170007209</v>
+        <v>0.002586105596517344</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4184,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006062366158563112</v>
+        <v>0.006174488214472131</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4205,16 +4205,16 @@
         <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K18">
-        <v>0.002419080277046637</v>
+        <v>0.002531655170007209</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006062366158563112</v>
+        <v>0.006174488214472131</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4255,16 +4255,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K19">
-        <v>0.002419080277046637</v>
+        <v>0.002531655170007209</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4284,7 +4284,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006062366158563112</v>
+        <v>0.006174488214472131</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4305,16 +4305,16 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K20">
-        <v>0.002360780618838172</v>
+        <v>0.002419080277046637</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4334,7 +4334,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006062366158563112</v>
+        <v>0.006174488214472131</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4355,16 +4355,16 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K21">
-        <v>0.002360780618838172</v>
+        <v>0.002419080277046637</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4384,7 +4384,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006062366158563112</v>
+        <v>0.006174488214472131</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4405,28 +4405,28 @@
         <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="K22">
-        <v>0.002310315064858003</v>
+        <v>0.002360780618838172</v>
       </c>
       <c r="L22">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4434,7 +4434,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006062366158563112</v>
+        <v>0.006174488214472131</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4455,16 +4455,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K23">
-        <v>0.00230100431850265</v>
+        <v>0.002360780618838172</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4484,7 +4484,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006062366158563112</v>
+        <v>0.006174488214472131</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4505,28 +4505,28 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="K24">
-        <v>0.002239633143453129</v>
+        <v>0.002310315064858003</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>549</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4534,7 +4534,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006062366158563112</v>
+        <v>0.006174488214472131</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -4555,16 +4555,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K25">
-        <v>0.002239633143453129</v>
+        <v>0.00230100431850265</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4584,7 +4584,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005534157828168262</v>
+        <v>0.005636510793526971</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4605,28 +4605,28 @@
         <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>109</v>
+        <v>303</v>
       </c>
       <c r="K26">
-        <v>0.002236066641360065</v>
+        <v>0.002239633143453129</v>
       </c>
       <c r="L26">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>105</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4634,7 +4634,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005534157828168262</v>
+        <v>0.005636510793526971</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4655,28 +4655,28 @@
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="K27">
-        <v>0.002221629371568481</v>
+        <v>0.002239633143453129</v>
       </c>
       <c r="L27">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4684,7 +4684,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005534157828168262</v>
+        <v>0.005636510793526971</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4705,28 +4705,28 @@
         <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K28">
-        <v>0.002207060897726638</v>
+        <v>0.002236066641360065</v>
       </c>
       <c r="L28">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="M28">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>2968</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4734,7 +4734,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005534157828168262</v>
+        <v>0.005636510793526971</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4755,28 +4755,28 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="K29">
-        <v>0.002176532186929394</v>
+        <v>0.002221629371568481</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4784,7 +4784,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005534157828168262</v>
+        <v>0.005636510793526971</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4805,28 +4805,28 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="K30">
-        <v>0.002111546377474469</v>
+        <v>0.002207060897726638</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4834,7 +4834,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005534157828168262</v>
+        <v>0.005636510793526971</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4855,16 +4855,16 @@
         <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K31">
-        <v>0.002111546377474469</v>
+        <v>0.002176532186929394</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4884,7 +4884,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005534157828168262</v>
+        <v>0.005636510793526971</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4905,25 +4905,25 @@
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>116</v>
+        <v>306</v>
       </c>
       <c r="K32">
-        <v>0.002053193487407516</v>
+        <v>0.002111546377474469</v>
       </c>
       <c r="L32">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>11</v>
@@ -4934,7 +4934,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004949901240798734</v>
+        <v>0.005041448516095035</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4955,16 +4955,16 @@
         <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K33">
-        <v>0.002044495988675804</v>
+        <v>0.002111546377474469</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>252</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4984,7 +4984,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004949901240798734</v>
+        <v>0.005041448516095035</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5005,28 +5005,28 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="K34">
-        <v>0.002006242372598244</v>
+        <v>0.002053193487407516</v>
       </c>
       <c r="L34">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="M34">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5034,7 +5034,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004949901240798734</v>
+        <v>0.005041448516095035</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5055,16 +5055,16 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K35">
-        <v>0.001975170775198276</v>
+        <v>0.002044495988675804</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5084,7 +5084,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004949901240798734</v>
+        <v>0.005041448516095035</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5105,7 +5105,7 @@
         <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K36">
         <v>0.001975170775198276</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5134,7 +5134,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004949901240798734</v>
+        <v>0.005041448516095035</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5155,7 +5155,7 @@
         <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K37">
         <v>0.001975170775198276</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5184,7 +5184,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5205,16 +5205,16 @@
         <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K38">
-        <v>0.001903322183626109</v>
+        <v>0.001975170775198276</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5234,7 +5234,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5255,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K39">
         <v>0.001903322183626109</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5284,7 +5284,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5305,7 +5305,7 @@
         <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K40">
         <v>0.001903322183626109</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5334,7 +5334,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5355,7 +5355,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K41">
         <v>0.001903322183626109</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5384,7 +5384,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5405,7 +5405,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K42">
         <v>0.001903322183626109</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5434,7 +5434,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5455,7 +5455,7 @@
         <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K43">
         <v>0.001903322183626109</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5484,7 +5484,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5505,7 +5505,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K44">
         <v>0.001903322183626109</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5534,7 +5534,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5555,28 +5555,28 @@
         <v>146</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>126</v>
+        <v>318</v>
       </c>
       <c r="K45">
-        <v>0.001883397891004636</v>
+        <v>0.001903322183626109</v>
       </c>
       <c r="L45">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5584,7 +5584,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5605,28 +5605,28 @@
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="K46">
-        <v>0.001828652804161895</v>
+        <v>0.001883397891004636</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>121</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5634,7 +5634,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5655,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K47">
         <v>0.001828652804161895</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5684,7 +5684,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004286740220755817</v>
+        <v>0.004366022486809662</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5705,7 +5705,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K48">
         <v>0.001828652804161895</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>122</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5734,7 +5734,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5755,7 +5755,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K49">
         <v>0.001828652804161895</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5784,7 +5784,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5805,7 +5805,7 @@
         <v>10</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K50">
         <v>0.001828652804161895</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5834,7 +5834,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5855,7 +5855,7 @@
         <v>9</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K51">
         <v>0.001828652804161895</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5884,7 +5884,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5905,28 +5905,28 @@
         <v>29</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
       <c r="K52">
-        <v>0.001826988324421746</v>
+        <v>0.001828652804161895</v>
       </c>
       <c r="L52">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M52">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5934,7 +5934,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -5984,7 +5984,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -6034,7 +6034,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -6084,7 +6084,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6184,7 +6184,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003500108733572491</v>
+        <v>0.003564842432733657</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6234,25 +6234,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002490279231402285</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>331</v>
@@ -6284,7 +6284,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>332</v>
@@ -6334,7 +6334,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>333</v>
@@ -6384,7 +6384,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6402,10 +6402,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K62">
         <v>0.001738011589770707</v>
@@ -6434,7 +6434,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6452,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K63">
         <v>0.001691893156562945</v>
@@ -6484,7 +6484,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>334</v>
@@ -6534,7 +6534,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>335</v>
@@ -6584,7 +6584,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>336</v>
@@ -6634,7 +6634,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>337</v>
@@ -6684,7 +6684,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>338</v>
@@ -6734,7 +6734,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>339</v>
@@ -6784,7 +6784,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>340</v>
@@ -6834,7 +6834,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>341</v>
@@ -6884,7 +6884,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>342</v>
@@ -6934,7 +6934,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>343</v>
@@ -6984,7 +6984,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K74">
         <v>0.001667523020674511</v>
@@ -7034,7 +7034,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7052,10 +7052,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K75">
         <v>0.001657732672318964</v>
@@ -7084,7 +7084,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>344</v>
@@ -7134,7 +7134,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>345</v>
@@ -7184,7 +7184,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>346</v>
@@ -7234,7 +7234,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>347</v>
@@ -7284,7 +7284,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7334,7 +7334,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>349</v>
@@ -7384,7 +7384,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7402,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>350</v>
@@ -7434,7 +7434,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>351</v>
@@ -7484,7 +7484,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>352</v>
@@ -7534,7 +7534,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>353</v>
@@ -7584,7 +7584,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>354</v>
@@ -7634,7 +7634,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>355</v>
@@ -7684,7 +7684,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>356</v>
@@ -7734,7 +7734,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>357</v>
@@ -7784,7 +7784,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>358</v>
@@ -7834,7 +7834,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>359</v>
@@ -7884,7 +7884,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>360</v>
@@ -7934,7 +7934,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7952,10 +7952,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K93">
         <v>0.001510058711192891</v>
@@ -7984,7 +7984,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K94">
         <v>0.001502424054158518</v>
@@ -8034,7 +8034,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>361</v>
@@ -8084,7 +8084,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>362</v>
@@ -8134,7 +8134,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>363</v>
@@ -8184,7 +8184,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>364</v>
@@ -8234,7 +8234,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>365</v>
@@ -8284,7 +8284,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>366</v>
@@ -8334,7 +8334,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>367</v>
@@ -8384,7 +8384,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002474950620399367</v>
+        <v>0.002520724258047518</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>368</v>
@@ -8434,25 +8434,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002474950620399367</v>
+        <v>0.002380956261820365</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>369</v>
@@ -8484,25 +8484,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002337720660450353</v>
+        <v>0.00232853119735647</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="E104">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F104">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>370</v>
@@ -8534,25 +8534,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002286247578694123</v>
+        <v>0.002035783673039256</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="E105">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F105">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>133</v>
+        <v>2968</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>371</v>
@@ -8584,25 +8584,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002249456897732358</v>
+        <v>0.001957870905728013</v>
       </c>
       <c r="C106">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E106">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F106">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>372</v>
@@ -8634,25 +8634,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001998816034122694</v>
+        <v>0.001776335742474658</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E107">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F107">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>2968</v>
+        <v>10</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>373</v>
@@ -8684,25 +8684,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001922318078751981</v>
+        <v>0.001757328129659493</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D108">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E108">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F108">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>374</v>
@@ -8734,13 +8734,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001744079398545761</v>
+        <v>0.00171538723945482</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
       <c r="D109">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E109">
         <v>0.97</v>
@@ -8752,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>375</v>
@@ -8784,25 +8784,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001725416943507684</v>
+        <v>0.001678669836077693</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E110">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F110">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>312</v>
+        <v>2049</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>376</v>
@@ -8834,25 +8834,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001684237654697824</v>
+        <v>0.001463489013644261</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E111">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F111">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>377</v>
@@ -8884,28 +8884,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001648186999820538</v>
+        <v>0.001461236212421679</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D112">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E112">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F112">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>2049</v>
+        <v>22</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K112">
         <v>0.001430216987177246</v>
@@ -8934,13 +8934,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001436913629367803</v>
+        <v>0.001457635348964727</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E113">
         <v>0.99</v>
@@ -8952,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>378</v>
@@ -8984,25 +8984,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001434701736589105</v>
+        <v>0.001423304810515648</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E114">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F114">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>379</v>
@@ -9034,25 +9034,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001431166260934318</v>
+        <v>0.001406373489925655</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E115">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F115">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>13</v>
+        <v>3133</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>380</v>
@@ -9084,25 +9084,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001397459128088695</v>
+        <v>0.001363218919148957</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E116">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F116">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>381</v>
@@ -9134,25 +9134,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001380835262045194</v>
+        <v>0.001302327744069275</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E117">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F117">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>3133</v>
+        <v>158</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>382</v>
@@ -9184,25 +9184,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001338464331795337</v>
+        <v>0.001235999614428653</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E118">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F118">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>383</v>
@@ -9234,25 +9234,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001278678874873905</v>
+        <v>0.001201801588759924</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>57</v>
       </c>
       <c r="E119">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F119">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>384</v>
@@ -9284,13 +9284,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001213555192630636</v>
+        <v>0.001199650092169245</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E120">
         <v>0.96</v>
@@ -9302,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>38</v>
+        <v>846</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>385</v>
@@ -9334,25 +9334,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001179978166275991</v>
+        <v>0.001186998824463846</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E121">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F121">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>854</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>386</v>
@@ -9384,25 +9384,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001177865738546187</v>
+        <v>0.001142558869283969</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E122">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F122">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>846</v>
+        <v>9</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>387</v>
@@ -9434,25 +9434,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001165444204236613</v>
+        <v>0.001122060324951781</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E123">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F123">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>854</v>
+        <v>21</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>388</v>
@@ -9484,25 +9484,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001121811230779948</v>
+        <v>0.001119206395441467</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E124">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F124">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>389</v>
@@ -9534,25 +9534,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001101684917935429</v>
+        <v>0.001099624260143856</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E125">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F125">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>390</v>
@@ -9584,25 +9584,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001098882812711275</v>
+        <v>0.001061108101168745</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E126">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F126">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>391</v>
@@ -9634,25 +9634,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001079656267900259</v>
+        <v>0.001042519998898062</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E127">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F127">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>392</v>
@@ -9684,13 +9684,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001041839520889346</v>
+        <v>0.0009560830654988504</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E128">
         <v>0.97</v>
@@ -9702,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>393</v>
@@ -9734,25 +9734,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001023588958536085</v>
+        <v>0.0009545487609098173</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E129">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F129">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>394</v>
@@ -9784,25 +9784,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0009387216267528389</v>
+        <v>0.0009545487609098173</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>395</v>
@@ -9834,7 +9834,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0009372151834826612</v>
+        <v>0.0009545487609098173</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>396</v>
@@ -9884,25 +9884,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0009372151834826612</v>
+        <v>0.0009281846824629661</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E132">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F132">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>397</v>
@@ -9934,25 +9934,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0009372151834826612</v>
+        <v>0.0009147852110522704</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E133">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F133">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>398</v>
@@ -9984,25 +9984,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.0009113298483056861</v>
+        <v>0.0008981306369713989</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E134">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F134">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>399</v>
@@ -10034,25 +10034,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0008981736968642698</v>
+        <v>0.0008981306369713989</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E135">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F135">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>14</v>
+        <v>840</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>400</v>
@@ -10084,13 +10084,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0008818215519113477</v>
+        <v>0.0008821969715237196</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E136">
         <v>0.96</v>
@@ -10102,10 +10102,10 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K136">
         <v>0.001387737187072278</v>
@@ -10134,13 +10134,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0008818215519113477</v>
+        <v>0.0008482807152239397</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E137">
         <v>0.96</v>
@@ -10152,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>840</v>
+        <v>1137</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>401</v>
@@ -10184,13 +10184,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.000866177224667274</v>
+        <v>0.0008301871245709763</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E138">
         <v>0.96</v>
@@ -10202,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>21</v>
+        <v>393</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>402</v>
@@ -10234,13 +10234,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0008328768510533103</v>
+        <v>0.0008301871245709763</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E139">
         <v>0.96</v>
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1137</v>
+        <v>55</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>403</v>
@@ -10284,25 +10284,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0008151118205193913</v>
+        <v>0.0007810636097184503</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E140">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F140">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>393</v>
+        <v>4</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>404</v>
@@ -10334,25 +10334,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0008151118205193913</v>
+        <v>0.0007705446560858316</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E141">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F141">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>405</v>
@@ -10384,19 +10384,19 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0007668803357894321</v>
+        <v>0.0007556251936657164</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E142">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F142">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10434,13 +10434,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0007565523950256269</v>
+        <v>0.0007485936961984459</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E143">
         <v>0.95</v>
@@ -10452,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>407</v>
@@ -10484,13 +10484,13 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0007419038539744568</v>
+        <v>0.0007291497402304975</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E144">
         <v>0.91</v>
@@ -10502,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>408</v>
@@ -10534,25 +10534,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0007350000409281075</v>
+        <v>0.0007254353654202284</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E145">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F145">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>409</v>
@@ -10584,25 +10584,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0007159091662589493</v>
+        <v>0.0007254353654202284</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E146">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F146">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>410</v>
@@ -10634,7 +10634,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0007122622404947677</v>
+        <v>0.0007254353654202284</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10652,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>411</v>
@@ -10684,13 +10684,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0007122622404947677</v>
+        <v>0.0007009425966989133</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>0.9399999999999999</v>
@@ -10702,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>412</v>
@@ -10734,13 +10734,13 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0007122622404947677</v>
+        <v>0.0007009425966989133</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E149">
         <v>0.9399999999999999</v>
@@ -10752,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>413</v>
@@ -10784,13 +10784,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0006882142340741566</v>
+        <v>0.0006749679018125485</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>0.9399999999999999</v>
@@ -10802,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>414</v>
@@ -10834,13 +10834,13 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0006882142340741566</v>
+        <v>0.0006749679018125485</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E151">
         <v>0.9399999999999999</v>
@@ -10852,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>28</v>
+        <v>333</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>415</v>
@@ -10884,7 +10884,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0006627112116715844</v>
+        <v>0.0006749679018125485</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>416</v>
@@ -10934,7 +10934,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0006627112116715844</v>
+        <v>0.0006749679018125485</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>417</v>
@@ -10984,25 +10984,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0006627112116715844</v>
+        <v>0.0006727637499131633</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E154">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F154">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>418</v>
@@ -11034,25 +11034,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0006627112116715844</v>
+        <v>0.0006473388819372398</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F155">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>419</v>
@@ -11084,25 +11084,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0006605470847967698</v>
+        <v>0.0006473388819372398</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E156">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F156">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>420</v>
@@ -11134,7 +11134,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0006355839050401216</v>
+        <v>0.0006473388819372398</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11152,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>421</v>
@@ -11184,25 +11184,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0006355839050401216</v>
+        <v>0.000636026505102615</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E158">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F158">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>422</v>
@@ -11234,13 +11234,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0006355839050401216</v>
+        <v>0.0006178524840853288</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E159">
         <v>0.93</v>
@@ -11252,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>423</v>
@@ -11284,25 +11284,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0006244769487851235</v>
+        <v>0.0006178524840853288</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E160">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F160">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>424</v>
@@ -11334,7 +11334,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0006066329484156727</v>
+        <v>0.0006178524840853288</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11352,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>425</v>
@@ -11384,28 +11384,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0006066329484156727</v>
+        <v>0.000586267589188275</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F162">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K162">
         <v>0.001281199232755232</v>
@@ -11434,28 +11434,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0006066329484156727</v>
+        <v>0.000586267589188275</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E163">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F163">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K163">
         <v>0.001204852275429898</v>
@@ -11484,7 +11484,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0005756216011922912</v>
+        <v>0.000586267589188275</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11502,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>426</v>
@@ -11534,25 +11534,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0005756216011922912</v>
+        <v>0.0005802765136437059</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E165">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F165">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>224</v>
+        <v>621</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>427</v>
@@ -11584,13 +11584,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0005756216011922912</v>
+        <v>0.0005522953749699591</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E166">
         <v>0.92</v>
@@ -11602,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>474</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>428</v>
@@ -11634,25 +11634,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0005697393171270854</v>
+        <v>0.0005522953749699591</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F167">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>621</v>
+        <v>14</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>429</v>
@@ -11684,25 +11684,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0005422662857953241</v>
+        <v>0.0005434387342981568</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E168">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F168">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>474</v>
+        <v>8</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>430</v>
@@ -11734,25 +11734,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0005422662857953241</v>
+        <v>0.0005155867258173943</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F169">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>431</v>
@@ -11784,25 +11784,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.000533570472179316</v>
+        <v>0.0005155867258173943</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>432</v>
@@ -11834,25 +11834,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0005062242261753106</v>
+        <v>0.0004757158097000884</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E171">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>433</v>
@@ -11884,25 +11884,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0005062242261753106</v>
+        <v>0.0004757158097000884</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E172">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F172">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>434</v>
@@ -11934,7 +11934,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0004670773229528013</v>
+        <v>0.0004757158097000884</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11952,7 +11952,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>435</v>
@@ -11984,7 +11984,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0004670773229528013</v>
+        <v>0.0004757158097000884</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -12002,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>436</v>
@@ -12034,25 +12034,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0004670773229528013</v>
+        <v>0.000468458142690088</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E175">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F175">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>437</v>
@@ -12084,25 +12084,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0004670773229528013</v>
+        <v>0.000468458142690088</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E176">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F176">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>438</v>
@@ -12134,7 +12134,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0004599514473590283</v>
+        <v>0.000468458142690088</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -12152,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>439</v>
@@ -12184,25 +12184,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0004599514473590283</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E178">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F178">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>440</v>
@@ -12234,25 +12234,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0004599514473590283</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E179">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F179">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>441</v>
@@ -12284,7 +12284,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0004243114547266915</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12302,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>442</v>
@@ -12334,7 +12334,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0004243114547266915</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12352,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>443</v>
@@ -12384,7 +12384,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0004243114547266915</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>444</v>
@@ -12434,7 +12434,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0004243114547266915</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12452,7 +12452,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>445</v>
@@ -12484,7 +12484,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0004243114547266915</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12502,7 +12502,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>446</v>
@@ -12534,7 +12534,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0004243114547266915</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12552,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>447</v>
@@ -12584,7 +12584,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0004243114547266915</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>448</v>
@@ -12634,7 +12634,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0004243114547266915</v>
+        <v>0.0004321589966608757</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12684,25 +12684,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0004243114547266915</v>
+        <v>0.00042783365043059</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E188">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F188">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>450</v>
@@ -12734,25 +12734,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0004243114547266915</v>
+        <v>0.00042783365043059</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E189">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>451</v>
@@ -12784,25 +12784,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0004200646521254504</v>
+        <v>0.0003848764782221826</v>
       </c>
       <c r="C190">
         <v>2</v>
       </c>
       <c r="D190">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E190">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>452</v>
@@ -12834,25 +12834,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0004200646521254504</v>
+        <v>0.0003842692141816611</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F191">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>453</v>
@@ -12884,25 +12884,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0003778875358984854</v>
+        <v>0.0003842692141816611</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>454</v>
@@ -12934,7 +12934,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003772912991189024</v>
+        <v>0.0003842692141816611</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12952,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>455</v>
@@ -12984,7 +12984,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0003772912991189024</v>
+        <v>0.0003842692141816611</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>456</v>
@@ -13034,7 +13034,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003772912991189024</v>
+        <v>0.0003842692141816611</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -13052,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>457</v>
@@ -13084,7 +13084,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003772912991189024</v>
+        <v>0.0003842692141816611</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13102,7 +13102,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>458</v>
@@ -13134,25 +13134,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003772912991189024</v>
+        <v>0.0003312499293982165</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F197">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>459</v>
@@ -13184,25 +13184,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003772912991189024</v>
+        <v>0.0003312499293982165</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F198">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>460</v>
@@ -13234,7 +13234,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003252347874441362</v>
+        <v>0.0003312499293982165</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13252,7 +13252,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>461</v>
@@ -13284,7 +13284,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003252347874441362</v>
+        <v>0.0003312499293982165</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13302,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>462</v>
@@ -13334,7 +13334,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003252347874441362</v>
+        <v>0.0003312499293982165</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13352,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>463</v>
@@ -13384,7 +13384,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0003252347874441362</v>
+        <v>0.0003312499293982165</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13402,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>464</v>
@@ -13434,7 +13434,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0003252347874441362</v>
+        <v>0.0003312499293982165</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13452,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>465</v>
@@ -13484,7 +13484,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0003252347874441362</v>
+        <v>0.0003312499293982165</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>466</v>
@@ -13534,7 +13534,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0003252347874441362</v>
+        <v>0.0003312499293982165</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13552,10 +13552,10 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>12</v>
+        <v>538</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K205">
         <v>0.001179116835703622</v>
@@ -13584,28 +13584,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0003252347874441362</v>
+        <v>0.0003025592963049389</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="F206">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K206">
         <v>0.001114848410600772</v>
@@ -13634,28 +13634,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0003252347874441362</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K207">
         <v>0.0010966588448928</v>
@@ -13684,25 +13684,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002970651453473609</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D208">
+        <v>6</v>
+      </c>
+      <c r="E208">
+        <v>0.83</v>
+      </c>
+      <c r="F208">
+        <v>0.17</v>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208">
         <v>17</v>
-      </c>
-      <c r="E208">
-        <v>0.76</v>
-      </c>
-      <c r="F208">
-        <v>0.24</v>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>14</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>467</v>
@@ -13734,7 +13734,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.000267206839159694</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>468</v>
@@ -13784,7 +13784,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.000267206839159694</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13802,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>469</v>
@@ -13834,7 +13834,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.000267206839159694</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13852,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>470</v>
@@ -13884,7 +13884,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.000267206839159694</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13902,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>471</v>
@@ -13934,7 +13934,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.000267206839159694</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13952,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>472</v>
@@ -13984,7 +13984,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.000267206839159694</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14034,7 +14034,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.000267206839159694</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14052,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>474</v>
@@ -14084,7 +14084,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.000267206839159694</v>
+        <v>0.0002721487676701019</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14102,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>475</v>
@@ -14134,25 +14134,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.000267206839159694</v>
+        <v>0.0002403805714534948</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
+        <v>9</v>
+      </c>
+      <c r="E217">
+        <v>0.78</v>
+      </c>
+      <c r="F217">
+        <v>0.22</v>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217">
         <v>6</v>
-      </c>
-      <c r="E217">
-        <v>0.83</v>
-      </c>
-      <c r="F217">
-        <v>0.17</v>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217">
-        <v>23</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>476</v>
@@ -14184,25 +14184,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.000267206839159694</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E218">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F218">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>477</v>
@@ -14234,25 +14234,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002360155191713026</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>478</v>
@@ -14284,7 +14284,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002022137761960542</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>479</v>
@@ -14334,7 +14334,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0002022137761960542</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>480</v>
@@ -14384,7 +14384,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0002022137761960542</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>481</v>
@@ -14434,7 +14434,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0002022137761960542</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14452,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>482</v>
@@ -14484,7 +14484,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0002022137761960542</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14502,7 +14502,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>483</v>
@@ -14534,7 +14534,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0002022137761960542</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14584,7 +14584,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002022137761960542</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14602,7 +14602,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>485</v>
@@ -14634,7 +14634,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002022137761960542</v>
+        <v>0.0002059536730823883</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14652,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>486</v>
@@ -14684,25 +14684,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002022137761960542</v>
+        <v>0.0001868999376305195</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F228">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>487</v>
@@ -14734,25 +14734,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002022137761960542</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F229">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>488</v>
@@ -14784,13 +14784,13 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001835060360586801</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E230">
         <v>0.75</v>
@@ -14802,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>489</v>
@@ -14834,7 +14834,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>490</v>
@@ -14884,7 +14884,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14902,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>491</v>
@@ -14934,7 +14934,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14952,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>492</v>
@@ -14984,7 +14984,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15002,7 +15002,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>493</v>
@@ -15034,7 +15034,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>494</v>
@@ -15084,7 +15084,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15102,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>495</v>
@@ -15134,7 +15134,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15152,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>496</v>
@@ -15184,7 +15184,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15202,7 +15202,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>497</v>
@@ -15234,7 +15234,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15252,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>498</v>
@@ -15284,7 +15284,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15302,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>499</v>
@@ -15334,7 +15334,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15352,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>500</v>
@@ -15384,7 +15384,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15402,7 +15402,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>501</v>
@@ -15434,7 +15434,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15452,7 +15452,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>502</v>
@@ -15484,7 +15484,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001297583624857563</v>
+        <v>0.0001321582133018837</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15534,25 +15534,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001297583624857563</v>
+        <v>9.317055159382505E-05</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E245">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F245">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>504</v>
@@ -15584,25 +15584,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001297583624857563</v>
+        <v>7.607343681950884E-05</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>505</v>
@@ -15634,25 +15634,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>9.147867472370779E-05</v>
+        <v>7.607343681950884E-05</v>
       </c>
       <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
         <v>3</v>
       </c>
-      <c r="D247">
-        <v>9</v>
-      </c>
       <c r="E247">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F247">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>506</v>
@@ -15684,25 +15684,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>7.46920251397074E-05</v>
+        <v>7.607343681950766E-05</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E248">
+        <v>0.67</v>
+      </c>
+      <c r="F248">
         <v>0.33</v>
       </c>
-      <c r="F248">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>507</v>
@@ -15734,25 +15734,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>7.46920251397074E-05</v>
+        <v>7.607343681950766E-05</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E249">
+        <v>0.67</v>
+      </c>
+      <c r="F249">
         <v>0.33</v>
       </c>
-      <c r="F249">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>508</v>
@@ -15784,13 +15784,13 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>7.469202513970623E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E250">
         <v>0.67</v>
@@ -15802,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>509</v>
@@ -15834,13 +15834,13 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>7.469202513970623E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E251">
         <v>0.67</v>
@@ -15852,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>510</v>
@@ -15884,7 +15884,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>5.281523747684236E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15902,7 +15902,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>511</v>
@@ -15934,7 +15934,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>5.281523747684236E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -15952,7 +15952,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>512</v>
@@ -15984,7 +15984,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>5.281523747684236E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16002,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>513</v>
@@ -16034,7 +16034,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>5.281523747684236E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16052,10 +16052,10 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K255">
         <v>0.001048191113487566</v>
@@ -16084,7 +16084,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>5.281523747684236E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16102,10 +16102,10 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K256">
         <v>0.001028557807746741</v>
@@ -16134,7 +16134,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>5.281523747684236E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16152,10 +16152,10 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K257">
         <v>0.001014920585691338</v>
@@ -16184,7 +16184,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>5.281523747684236E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16202,10 +16202,10 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K258">
         <v>0.0009590505035764249</v>
@@ -16234,7 +16234,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>5.281523747684236E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16252,10 +16252,10 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K259">
         <v>0.0009590505035764249</v>
@@ -16284,7 +16284,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>5.281523747684236E-05</v>
+        <v>5.379204304324025E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16305,7 +16305,7 @@
         <v>17</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K260">
         <v>0.0009237423597071311</v>
@@ -16334,25 +16334,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>5.281523747684236E-05</v>
+        <v>2.628724699034714E-05</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F261">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>514</v>
@@ -16384,25 +16384,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>5.281523747684236E-05</v>
+        <v>1.624852889602382E-05</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E262">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F262">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>515</v>
@@ -16434,25 +16434,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>2.580989889697194E-05</v>
+        <v>1.624852889602382E-05</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E263">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F263">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>961</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>516</v>
@@ -16484,25 +16484,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>1.59534731113113E-05</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E264">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F264">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>517</v>
@@ -16534,25 +16534,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>1.59534731113113E-05</v>
+        <v>0</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E265">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F265">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>961</v>
+        <v>16</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>518</v>
@@ -16602,7 +16602,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>519</v>
@@ -16652,7 +16652,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>520</v>
@@ -16702,7 +16702,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>521</v>
@@ -16752,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>522</v>
@@ -16802,7 +16802,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>523</v>
@@ -16852,7 +16852,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>524</v>
@@ -16902,7 +16902,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>525</v>
@@ -17002,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>527</v>
@@ -17052,7 +17052,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>528</v>
@@ -17102,7 +17102,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>529</v>
@@ -17152,7 +17152,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>530</v>
@@ -17180,30 +17180,6 @@
       </c>
     </row>
     <row r="278" spans="1:17">
-      <c r="A278" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-      <c r="C278">
-        <v>1</v>
-      </c>
-      <c r="D278">
-        <v>2</v>
-      </c>
-      <c r="E278">
-        <v>0.5</v>
-      </c>
-      <c r="F278">
-        <v>0.5</v>
-      </c>
-      <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278">
-        <v>64</v>
-      </c>
       <c r="J278" s="1" t="s">
         <v>531</v>
       </c>
@@ -17230,30 +17206,6 @@
       </c>
     </row>
     <row r="279" spans="1:17">
-      <c r="A279" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-      <c r="C279">
-        <v>1</v>
-      </c>
-      <c r="D279">
-        <v>2</v>
-      </c>
-      <c r="E279">
-        <v>0.5</v>
-      </c>
-      <c r="F279">
-        <v>0.5</v>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279">
-        <v>35</v>
-      </c>
       <c r="J279" s="1" t="s">
         <v>532</v>
       </c>
@@ -18763,7 +18715,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K337">
         <v>0.0009133110490748752</v>
@@ -18789,7 +18741,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K338">
         <v>0.0008519592142845227</v>
@@ -18815,7 +18767,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K339">
         <v>0.0008154599316634525</v>
@@ -18841,7 +18793,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K340">
         <v>0.0008154599316634525</v>
@@ -18867,7 +18819,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K341">
         <v>0.0007881479677487261</v>
@@ -18893,7 +18845,7 @@
     </row>
     <row r="342" spans="10:17">
       <c r="J342" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K342">
         <v>0.0007742104700445156</v>
@@ -18919,7 +18871,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K343">
         <v>0.0007742104700445156</v>
@@ -18945,7 +18897,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K344">
         <v>0.0007742104700445156</v>
@@ -22949,7 +22901,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K498">
         <v>0.0007033798225221094</v>
@@ -22975,7 +22927,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K499">
         <v>0.000665116482944767</v>
@@ -23001,7 +22953,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K500">
         <v>0.0006263808575385446</v>
@@ -23027,7 +22979,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K501">
         <v>0.0006263808575385446</v>
@@ -23053,7 +23005,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K502">
         <v>0.0006263808575385446</v>
@@ -23079,7 +23031,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K503">
         <v>0.0006158212160070176</v>
@@ -23105,7 +23057,7 @@
     </row>
     <row r="504" spans="10:17">
       <c r="J504" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K504">
         <v>0.0005871617239180143</v>
@@ -23131,7 +23083,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K505">
         <v>0.0005871617239180143</v>
@@ -23157,7 +23109,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K506">
         <v>0.0005474494734341015</v>
@@ -23183,7 +23135,7 @@
     </row>
     <row r="507" spans="10:17">
       <c r="J507" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K507">
         <v>0.0005474494734341015</v>
@@ -23209,7 +23161,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K508">
         <v>0.0005474494734341015</v>
@@ -23235,7 +23187,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K509">
         <v>0.0005474494734341015</v>
@@ -23261,7 +23213,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K510">
         <v>0.0005424978723487045</v>
@@ -29943,7 +29895,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K767">
         <v>0.0005127626360289263</v>
@@ -29969,7 +29921,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K768">
         <v>0.0005072370915501621</v>
@@ -29995,7 +29947,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K769">
         <v>0.0005072370915501621</v>
@@ -30021,7 +29973,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K770">
         <v>0.0005072370915501621</v>
@@ -30047,7 +29999,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K771">
         <v>0.0004828719943302064</v>
@@ -30073,7 +30025,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K772">
         <v>0.0004665216099752924</v>
@@ -30099,7 +30051,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K773">
         <v>0.0004665216099752924</v>
@@ -30125,7 +30077,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K774">
         <v>0.0004665216099752924</v>
@@ -30151,7 +30103,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K775">
         <v>0.0004253062854993811</v>
@@ -30177,7 +30129,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K776">
         <v>0.0004253062854993811</v>
@@ -30203,7 +30155,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K777">
         <v>0.0004253062854993811</v>
@@ -30229,7 +30181,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K778">
         <v>0.0004226677673559625</v>
@@ -30255,7 +30207,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K779">
         <v>0.000383603924317043</v>
@@ -30281,7 +30233,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K780">
         <v>0.000383603924317043</v>
@@ -30307,7 +30259,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K781">
         <v>0.0003439100579188314</v>
@@ -30333,7 +30285,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K782">
         <v>0.0003414420616359607</v>
@@ -30359,7 +30311,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K783">
         <v>0.0003414420616359607</v>
@@ -30385,7 +30337,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K784">
         <v>0.0003011028751902916</v>
@@ -30411,7 +30363,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K785">
         <v>0.0002988712444863792</v>
@@ -30437,7 +30389,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K786">
         <v>0.0002988712444863792</v>
@@ -30463,7 +30415,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K787">
         <v>0.0002988712444863792</v>
@@ -30489,7 +30441,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K788">
         <v>0.0002988712444863792</v>
@@ -30515,7 +30467,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K789">
         <v>0.0002662385284855536</v>
@@ -30541,7 +30493,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K790">
         <v>0.0002559787090484432</v>
@@ -30567,7 +30519,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K791">
         <v>0.0002559787090484432</v>
@@ -30593,7 +30545,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K792">
         <v>0.0002559787090484432</v>
@@ -30619,7 +30571,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K793">
         <v>0.0002559787090484432</v>
@@ -30645,7 +30597,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K794">
         <v>0.0002559787090484432</v>
@@ -30671,7 +30623,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K795">
         <v>0.0002559787090484432</v>
@@ -30697,7 +30649,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K796">
         <v>0.0002559787090484432</v>
@@ -30723,7 +30675,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K797">
         <v>0.0002559787090484432</v>
@@ -30749,7 +30701,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K798">
         <v>0.0002559787090484432</v>
@@ -30775,7 +30727,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K799">
         <v>0.0002559787090484432</v>
@@ -30801,7 +30753,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K800">
         <v>0.0002403043928103697</v>
@@ -30827,7 +30779,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K801">
         <v>0.0002403043928103697</v>
@@ -30853,7 +30805,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K802">
         <v>0.0002403043928103697</v>
@@ -30879,7 +30831,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K803">
         <v>0.0002129118848818223</v>
@@ -30905,7 +30857,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K804">
         <v>0.0002129118848818223</v>
@@ -30931,7 +30883,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K805">
         <v>0.0002129118848818223</v>
@@ -30957,7 +30909,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K806">
         <v>0.0002129118848818223</v>
@@ -30983,7 +30935,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K807">
         <v>0.0002129118848818223</v>
@@ -31009,7 +30961,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K808">
         <v>0.0002129118848818223</v>
@@ -31035,7 +30987,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K809">
         <v>0.0002101220249132079</v>
@@ -31061,7 +31013,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K810">
         <v>0.0002101220249132079</v>
@@ -31087,7 +31039,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K811">
         <v>0.0001802277515148369</v>
@@ -31113,7 +31065,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K812">
         <v>0.0001699208657051283</v>
@@ -31139,7 +31091,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K813">
         <v>0.0001699208657051283</v>
@@ -31165,7 +31117,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K814">
         <v>0.0001699208657051283</v>
@@ -31191,7 +31143,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K815">
         <v>0.0001699208657051283</v>
@@ -31217,7 +31169,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K816">
         <v>0.0001699208657051283</v>
@@ -31243,7 +31195,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K817">
         <v>0.0001699208657051283</v>
@@ -31269,7 +31221,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K818">
         <v>0.0001699208657051283</v>
@@ -31295,7 +31247,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K819">
         <v>0.0001699208657051283</v>
@@ -31321,7 +31273,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K820">
         <v>0.0001699208657051283</v>
@@ -31347,7 +31299,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K821">
         <v>0.0001274402652541453</v>
@@ -31373,7 +31325,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K822">
         <v>0.0001274402652541453</v>
@@ -31399,7 +31351,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K823">
         <v>0.0001274402652541453</v>
@@ -31425,7 +31377,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K824">
         <v>0.0001274402652541453</v>
@@ -31451,7 +31403,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K825">
         <v>0.0001274402652541453</v>
@@ -31477,7 +31429,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K826">
         <v>0.0001274402652541453</v>
@@ -31503,7 +31455,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K827">
         <v>0.0001274402652541453</v>
@@ -31529,7 +31481,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K828">
         <v>0.0001274402652541453</v>
@@ -31555,7 +31507,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K829">
         <v>0.0001274402652541453</v>
@@ -31581,7 +31533,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K830">
         <v>0.0001274402652541453</v>
@@ -31607,7 +31559,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K831">
         <v>0.0001142266590010814</v>
@@ -31633,7 +31585,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K832">
         <v>9.417782967427089E-05</v>
@@ -31659,7 +31611,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K833">
         <v>8.626106781340782E-05</v>
@@ -31685,7 +31637,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K834">
         <v>8.626106781340782E-05</v>
@@ -31711,7 +31663,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K835">
         <v>8.626106781340782E-05</v>
@@ -31737,7 +31689,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K836">
         <v>8.626106781340782E-05</v>
@@ -31763,7 +31715,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K837">
         <v>8.626106781340782E-05</v>
@@ -31789,7 +31741,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K838">
         <v>8.626106781340782E-05</v>
@@ -31815,7 +31767,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K839">
         <v>8.626106781340782E-05</v>
@@ -31841,7 +31793,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K840">
         <v>8.626106781340782E-05</v>
@@ -31867,7 +31819,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K841">
         <v>8.626106781340782E-05</v>
@@ -31893,7 +31845,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K842">
         <v>8.626106781340782E-05</v>
@@ -31919,7 +31871,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K843">
         <v>6.779303486976046E-05</v>
@@ -31945,7 +31897,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K844">
         <v>4.79369146736237E-05</v>
@@ -31971,7 +31923,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K845">
         <v>4.79369146736237E-05</v>
@@ -31997,7 +31949,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K846">
         <v>4.79369146736237E-05</v>
@@ -32023,7 +31975,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K847">
         <v>4.79369146736237E-05</v>
@@ -32049,7 +32001,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K848">
         <v>4.79369146736237E-05</v>
@@ -32075,7 +32027,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K849">
         <v>4.79369146736237E-05</v>
@@ -32101,7 +32053,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K850">
         <v>4.79369146736237E-05</v>
@@ -32127,7 +32079,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K851">
         <v>4.79369146736237E-05</v>
@@ -32153,7 +32105,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K852">
         <v>4.79369146736237E-05</v>
@@ -32179,7 +32131,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K853">
         <v>4.79369146736237E-05</v>
@@ -32205,7 +32157,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K854">
         <v>4.79369146736237E-05</v>
@@ -32231,7 +32183,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K855">
         <v>4.79369146736237E-05</v>
@@ -32257,7 +32209,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K856">
         <v>4.79369146736237E-05</v>
@@ -32283,7 +32235,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K857">
         <v>4.79369146736237E-05</v>
@@ -32309,7 +32261,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K858">
         <v>4.79369146736237E-05</v>
@@ -32335,7 +32287,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K859">
         <v>4.79369146736237E-05</v>
@@ -32361,7 +32313,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K860">
         <v>2.759363764563E-05</v>
@@ -32387,7 +32339,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K861">
         <v>2.253011079301572E-05</v>
@@ -32413,7 +32365,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K862">
         <v>2.253011079301572E-05</v>
@@ -32439,7 +32391,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K863">
         <v>1.593119412262572E-05</v>
@@ -32465,7 +32417,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K864">
         <v>1.593119412262572E-05</v>
@@ -32491,7 +32443,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K865">
         <v>1.593119412262572E-05</v>
@@ -32517,7 +32469,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K866">
         <v>1.593119412262572E-05</v>
@@ -32543,7 +32495,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K867">
         <v>1.593119412262572E-05</v>
@@ -32569,7 +32521,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K868">
         <v>1.593119412262572E-05</v>
@@ -32595,7 +32547,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K869">
         <v>1.593119412262572E-05</v>
@@ -32621,7 +32573,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K870">
         <v>1.593119412262572E-05</v>
@@ -32647,7 +32599,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K871">
         <v>1.593119412262572E-05</v>
@@ -32673,7 +32625,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K872">
         <v>1.593119412262572E-05</v>
@@ -32699,7 +32651,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K873">
         <v>1.593119412262572E-05</v>
@@ -32725,7 +32677,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K874">
         <v>1.126505539650774E-05</v>
@@ -32751,7 +32703,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K875">
         <v>1.126505539650774E-05</v>
@@ -32777,7 +32729,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K876">
         <v>6.742268253036438E-06</v>
@@ -32803,7 +32755,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K877">
         <v>3.929150895734274E-06</v>
@@ -32829,7 +32781,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K878">
         <v>3.929150895734274E-06</v>
@@ -32855,7 +32807,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K879">
         <v>0</v>
@@ -32881,7 +32833,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K880">
         <v>0</v>
@@ -32907,7 +32859,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K881">
         <v>0</v>
@@ -32933,7 +32885,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K882">
         <v>0</v>
@@ -32959,7 +32911,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K883">
         <v>0</v>
@@ -32985,7 +32937,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K884">
         <v>0</v>
@@ -33011,7 +32963,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K885">
         <v>0</v>
@@ -33037,7 +32989,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K886">
         <v>0</v>
@@ -33063,7 +33015,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K887">
         <v>0</v>
@@ -33089,7 +33041,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K888">
         <v>0</v>
@@ -33115,7 +33067,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K889">
         <v>0</v>
@@ -33141,7 +33093,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K890">
         <v>0</v>
@@ -33167,7 +33119,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K891">
         <v>0</v>
@@ -33193,7 +33145,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K892">
         <v>0</v>
